--- a/data.xlsx
+++ b/data.xlsx
@@ -449,24 +449,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>William Flores</t>
+          <t>Teresa Morris</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>medical</t>
+          <t>never</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Brittany Smith</t>
+          <t>Daryl Webb</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>often</t>
+          <t>financial</t>
         </is>
       </c>
     </row>
@@ -513,20 +513,20 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>husband</t>
+          <t>seek</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>administration</t>
+          <t>seven</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>800582592.2245305</v>
+        <v>843905406.7312161</v>
       </c>
     </row>
     <row r="3">
@@ -535,34 +535,34 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>reason</t>
+          <t>performance</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>blood</t>
+          <t>break</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>735102828.7816603</v>
+        <v>83078312.24782757</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sound</t>
+          <t>figure</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>bank</t>
+          <t>wife</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>952884893.8432695</v>
+        <v>64036052.54029588</v>
       </c>
     </row>
     <row r="5">
@@ -571,52 +571,52 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>from</t>
+          <t>increase</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>its</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>20343174.4422603</v>
+        <v>133241582.3710946</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>to</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>my</t>
+          <t>team</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>791919192.6761042</v>
+        <v>444602616.9329122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>happen</t>
+          <t>cell</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>whole</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>868439454.0880153</v>
+        <v>547344359.6624186</v>
       </c>
     </row>
     <row r="8">
@@ -625,16 +625,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speak</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>read</t>
+          <t>well</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>428949832.2236772</v>
+        <v>732372542.4140385</v>
       </c>
     </row>
     <row r="9">
@@ -643,16 +643,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>central</t>
+          <t>edge</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>benefit</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>250537747.654137</v>
+        <v>222175764.7025537</v>
       </c>
     </row>
     <row r="10">
@@ -661,34 +661,34 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>place</t>
+          <t>right</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>subject</t>
+          <t>say</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>720289208.3413415</v>
+        <v>503481433.7166647</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>employee</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>each</t>
+          <t>send</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>732824143.3801595</v>
+        <v>971024493.519335</v>
       </c>
     </row>
     <row r="12">
@@ -697,16 +697,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>thus</t>
+          <t>you</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>individual</t>
+          <t>per</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>297796074.9385514</v>
+        <v>608937928.9449538</v>
       </c>
     </row>
     <row r="13">
@@ -715,34 +715,34 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>try</t>
+          <t>individual</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>produce</t>
+          <t>attention</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>515593066.1525873</v>
+        <v>129364266.9923669</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>local</t>
+          <t>hope</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>decade</t>
+          <t>get</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>35480709.37490644</v>
+        <v>346274620.9818732</v>
       </c>
     </row>
     <row r="15">
@@ -751,34 +751,34 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>performance</t>
+          <t>even</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>learn</t>
+          <t>key</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>563315248.9723928</v>
+        <v>560511847.8014655</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pull</t>
+          <t>hundred</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ability</t>
+          <t>finally</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>982132547.7894166</v>
+        <v>118120014.8272379</v>
       </c>
     </row>
     <row r="17">
@@ -787,16 +787,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>cut</t>
+          <t>option</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>admit</t>
+          <t>environment</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>22234346.69324087</v>
+        <v>261993837.9497365</v>
       </c>
     </row>
     <row r="18">
@@ -805,16 +805,16 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>board</t>
+          <t>fine</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>phone</t>
+          <t>debate</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>830315104.308632</v>
+        <v>312057849.3216124</v>
       </c>
     </row>
     <row r="19">
@@ -823,34 +823,34 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>hope</t>
+          <t>that</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>popular</t>
+          <t>would</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>291820246.1081072</v>
+        <v>814232638.2644565</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>thousand</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>act</t>
+          <t>bill</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>681295100.7991202</v>
+        <v>379112509.677578</v>
       </c>
     </row>
     <row r="21">
@@ -859,16 +859,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>sound</t>
+          <t>them</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>edge</t>
+          <t>true</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>166938424.8893791</v>
+        <v>251779173.696842</v>
       </c>
     </row>
     <row r="22">
@@ -877,52 +877,52 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>war</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>sure</t>
+          <t>enjoy</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>197341530.6074401</v>
+        <v>326052279.3594846</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>student</t>
+          <t>natural</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>as</t>
+          <t>machine</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>320103635.7141147</v>
+        <v>617897532.9564265</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>cause</t>
+          <t>population</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>baby</t>
+          <t>week</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>272985959.8380797</v>
+        <v>938291864.3025107</v>
       </c>
     </row>
     <row r="25">
@@ -931,16 +931,16 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>culture</t>
+          <t>write</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>deal</t>
+          <t>miss</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>957762072.9105012</v>
+        <v>878679608.215885</v>
       </c>
     </row>
     <row r="26">
@@ -949,16 +949,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>sing</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>449905292.7347283</v>
+        <v>962555089.7281028</v>
       </c>
     </row>
     <row r="27">
@@ -967,34 +967,34 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>remain</t>
+          <t>by</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>there</t>
+          <t>within</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>480150622.9967275</v>
+        <v>622059889.5059568</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>already</t>
+          <t>firm</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>environmental</t>
+          <t>special</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>950627648.4959255</v>
+        <v>427102045.5497833</v>
       </c>
     </row>
     <row r="29">
@@ -1003,52 +1003,52 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>prove</t>
+          <t>go</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>assume</t>
+          <t>way</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>467532586.9443232</v>
+        <v>695347333.8570837</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ground</t>
+          <t>population</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>let</t>
+          <t>beat</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>251598011.9807986</v>
+        <v>137318983.3246705</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>loss</t>
+          <t>include</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>size</t>
+          <t>conference</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>302374760.258486</v>
+        <v>433094363.7448641</v>
       </c>
     </row>
     <row r="32">
@@ -1057,16 +1057,16 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>place</t>
+          <t>half</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>relate</t>
+          <t>present</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>885919623.9830918</v>
+        <v>171905575.0323767</v>
       </c>
     </row>
     <row r="33">
@@ -1075,52 +1075,52 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>cup</t>
+          <t>away</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>evidence</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>629146637.2804995</v>
+        <v>203186805.0191575</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>represent</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>by</t>
+          <t>reveal</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>479210516.3760983</v>
+        <v>722270344.537747</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>through</t>
+          <t>will</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>reveal</t>
+          <t>price</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>181286930.6031975</v>
+        <v>26641794.27361324</v>
       </c>
     </row>
     <row r="36">
@@ -1129,52 +1129,52 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Congress</t>
+          <t>already</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>structure</t>
+          <t>happen</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>235235849.614576</v>
+        <v>554263137.7755697</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>together</t>
+          <t>week</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>senior</t>
+          <t>analysis</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>994797207.1091985</v>
+        <v>961932432.3051153</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>rate</t>
+          <t>very</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>couple</t>
+          <t>a</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>21601079.58553104</v>
+        <v>434511518.0125313</v>
       </c>
     </row>
     <row r="39">
@@ -1183,52 +1183,52 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>although</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>form</t>
+          <t>machine</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>618980930.4348743</v>
+        <v>112042457.3712597</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>among</t>
+          <t>especially</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>institution</t>
+          <t>in</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>205068271.131717</v>
+        <v>430607303.408235</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>forget</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>money</t>
+          <t>room</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>899223207.3638548</v>
+        <v>553219797.7986058</v>
       </c>
     </row>
     <row r="42">
@@ -1237,16 +1237,16 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>along</t>
+          <t>heart</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>democratic</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>84365544.70465685</v>
+        <v>119121553.9577102</v>
       </c>
     </row>
     <row r="43">
@@ -1255,34 +1255,34 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>almost</t>
+          <t>age</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>building</t>
+          <t>staff</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>386706256.2532795</v>
+        <v>511990460.792012</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>together</t>
+          <t>help</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>less</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>942932838.7922492</v>
+        <v>178445129.5089428</v>
       </c>
     </row>
     <row r="45">
@@ -1291,16 +1291,16 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>view</t>
+          <t>animal</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>similar</t>
+          <t>far</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>70139694.45304158</v>
+        <v>171860476.5914567</v>
       </c>
     </row>
     <row r="46">
@@ -1309,16 +1309,16 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>painting</t>
+          <t>the</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>professor</t>
+          <t>in</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>826588262.0040559</v>
+        <v>767441845.9508252</v>
       </c>
     </row>
     <row r="47">
@@ -1327,52 +1327,52 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>dinner</t>
+          <t>peace</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>bring</t>
+          <t>college</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>708380312.8769747</v>
+        <v>621039995.2747825</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>raise</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>our</t>
+          <t>hit</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>665612247.5384753</v>
+        <v>909791632.5909227</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>however</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>reason</t>
+          <t>help</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>522845673.1109351</v>
+        <v>999659403.0746655</v>
       </c>
     </row>
     <row r="50">
@@ -1381,16 +1381,16 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>easy</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>likely</t>
+          <t>just</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>619844214.2948151</v>
+        <v>125414340.6583604</v>
       </c>
     </row>
     <row r="51">
@@ -1399,16 +1399,16 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>set</t>
+          <t>whose</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>skill</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>798937414.4016495</v>
+        <v>626662147.2401081</v>
       </c>
     </row>
     <row r="52">
@@ -1417,34 +1417,34 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>military</t>
+          <t>fall</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>level</t>
+          <t>economy</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>838774096.4442258</v>
+        <v>666173513.4652394</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>because</t>
+          <t>two</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>hope</t>
+          <t>way</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>485621063.5567865</v>
+        <v>407506726.7826656</v>
       </c>
     </row>
     <row r="54">
@@ -1453,52 +1453,52 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>reduce</t>
+          <t>five</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>carry</t>
+          <t>avoid</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>317206308.1292924</v>
+        <v>890592238.4964404</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>heart</t>
+          <t>also</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>take</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>124406004.4525862</v>
+        <v>626788464.8220394</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>decide</t>
+          <t>particularly</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>mission</t>
+          <t>politics</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>470468700.5024285</v>
+        <v>331158672.1973089</v>
       </c>
     </row>
     <row r="57">
@@ -1507,16 +1507,16 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>federal</t>
+          <t>analysis</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>never</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>768326440.4233657</v>
+        <v>393852946.2713743</v>
       </c>
     </row>
     <row r="58">
@@ -1525,16 +1525,16 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>boy</t>
+          <t>consider</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>list</t>
+          <t>east</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>70882069.33582087</v>
+        <v>830924462.7553873</v>
       </c>
     </row>
     <row r="59">
@@ -1543,16 +1543,16 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>turn</t>
+          <t>what</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>kind</t>
+          <t>choose</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>772108247.5181122</v>
+        <v>24478416.10626544</v>
       </c>
     </row>
     <row r="60">
@@ -1561,16 +1561,16 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>daughter</t>
+          <t>risk</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>player</t>
+          <t>and</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>698133833.0427462</v>
+        <v>534612994.4286432</v>
       </c>
     </row>
     <row r="61">
@@ -1579,160 +1579,160 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>laugh</t>
+          <t>help</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>democratic</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>110283739.4130394</v>
+        <v>482345228.7965789</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>letter</t>
+          <t>probably</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>our</t>
+          <t>support</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>712894301.174215</v>
+        <v>335067820.9226142</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>capital</t>
+          <t>international</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>prevent</t>
+          <t>foot</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>53085146.76470799</v>
+        <v>553875329.4035211</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>since</t>
+          <t>allow</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>stand</t>
+          <t>parent</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>667451316.811627</v>
+        <v>81007736.54314041</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>mouth</t>
+          <t>wrong</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>close</t>
+          <t>report</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>205734152.4245434</v>
+        <v>64709102.33378535</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>build</t>
+          <t>radio</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>182159361.1758939</v>
+        <v>850973216.7901307</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>value</t>
+          <t>lawyer</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>will</t>
+          <t>enough</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>301800337.9497792</v>
+        <v>134342960.6216607</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>bed</t>
+          <t>sing</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>group</t>
+          <t>color</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>663438615.9640874</v>
+        <v>462931840.4055018</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>might</t>
+          <t>attack</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>message</t>
+          <t>second</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>741288118.229705</v>
+        <v>576464911.5687184</v>
       </c>
     </row>
     <row r="70">
@@ -1741,34 +1741,34 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>attack</t>
+          <t>house</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>relate</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>103630693.2289806</v>
+        <v>146991908.6486714</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>floor</t>
+          <t>pattern</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>central</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>78152234.74443878</v>
+        <v>977393278.2581984</v>
       </c>
     </row>
     <row r="72">
@@ -1777,52 +1777,52 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>break</t>
+          <t>together</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>city</t>
+          <t>we</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>835523730.3081987</v>
+        <v>399582814.0521708</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>act</t>
+          <t>from</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>fill</t>
+          <t>staff</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>201613940.5407733</v>
+        <v>612119741.8865364</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>do</t>
+          <t>turn</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>red</t>
+          <t>foot</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>279552124.8972828</v>
+        <v>435024785.6310999</v>
       </c>
     </row>
     <row r="75">
@@ -1831,16 +1831,16 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>likely</t>
+          <t>summer</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>list</t>
+          <t>west</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>476771922.6528652</v>
+        <v>931399401.5205355</v>
       </c>
     </row>
     <row r="76">
@@ -1849,16 +1849,16 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>by</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>card</t>
+          <t>against</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>565818439.0827655</v>
+        <v>180647098.0260066</v>
       </c>
     </row>
     <row r="77">
@@ -1867,34 +1867,34 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>guess</t>
+          <t>him</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>necessary</t>
+          <t>individual</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>553468136.9081705</v>
+        <v>446990473.637947</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ask</t>
+          <t>old</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>soon</t>
+          <t>direction</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>887163854.2696149</v>
+        <v>770083631.9237025</v>
       </c>
     </row>
     <row r="79">
@@ -1903,52 +1903,52 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>join</t>
+          <t>food</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>college</t>
+          <t>and</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>998589536.0061607</v>
+        <v>512491043.1979765</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>there</t>
+          <t>stuff</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>religious</t>
+          <t>who</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>955199540.2289116</v>
+        <v>213307841.3347909</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>paper</t>
+          <t>better</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>early</t>
+          <t>on</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>463337744.3616285</v>
+        <v>703150813.310848</v>
       </c>
     </row>
     <row r="82">
@@ -1957,124 +1957,124 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>environmental</t>
+          <t>perform</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>result</t>
+          <t>others</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>580640547.8310165</v>
+        <v>776863570.9160638</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>by</t>
+          <t>think</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>everyone</t>
+          <t>ever</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>794290500.6984224</v>
+        <v>763437061.0110438</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>wear</t>
+          <t>more</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>get</t>
+          <t>alone</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>292044430.5543246</v>
+        <v>300933762.4315864</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>cover</t>
+          <t>actually</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>inside</t>
+          <t>must</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>107593146.5587565</v>
+        <v>13282678.67046951</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>there</t>
+          <t>line</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>tough</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>174380026.6762948</v>
+        <v>456612564.9620895</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>learn</t>
+          <t>little</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>will</t>
+          <t>law</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>421382296.7237697</v>
+        <v>277977251.0612605</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>agree</t>
+          <t>rise</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>artist</t>
+          <t>such</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>91089754.10995357</v>
+        <v>640690242.4931248</v>
       </c>
     </row>
     <row r="89">
@@ -2083,16 +2083,16 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>image</t>
+          <t>drive</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>us</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>336335572.6342158</v>
+        <v>22778492.14219119</v>
       </c>
     </row>
     <row r="90">
@@ -2101,16 +2101,16 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>mention</t>
+          <t>travel</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>cut</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>867881756.9011385</v>
+        <v>754848364.2575709</v>
       </c>
     </row>
     <row r="91">
@@ -2119,34 +2119,34 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>guess</t>
+          <t>third</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>exist</t>
+          <t>rock</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>947486280.1782149</v>
+        <v>544530311.9183997</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>impact</t>
+          <t>require</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>include</t>
+          <t>investment</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>563383698.2544349</v>
+        <v>603520796.8253778</v>
       </c>
     </row>
     <row r="93">
@@ -2155,34 +2155,34 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>world</t>
+          <t>week</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>everything</t>
+          <t>bank</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>765237833.6130649</v>
+        <v>281289424.1212271</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>floor</t>
+          <t>safe</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>offer</t>
+          <t>soldier</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>90112605.11142416</v>
+        <v>344433319.3539272</v>
       </c>
     </row>
     <row r="95">
@@ -2191,16 +2191,16 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>into</t>
+          <t>ball</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>coach</t>
+          <t>decide</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>112015438.0859261</v>
+        <v>896388036.0107049</v>
       </c>
     </row>
     <row r="96">
@@ -2209,16 +2209,16 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>play</t>
+          <t>option</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>friend</t>
+          <t>floor</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>968520826.7209009</v>
+        <v>566246006.6653608</v>
       </c>
     </row>
     <row r="97">
@@ -2227,52 +2227,52 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>expect</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>officer</t>
+          <t>idea</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>953223023.04781</v>
+        <v>672835156.8592443</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>face</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>ability</t>
+          <t>factor</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>947815105.9574776</v>
+        <v>88154354.37147057</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>end</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>join</t>
+          <t>force</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>206125971.9176436</v>
+        <v>774926877.9721311</v>
       </c>
     </row>
     <row r="100">
@@ -2281,34 +2281,34 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>civil</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>up</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>798985501.0031183</v>
+        <v>802460456.3486249</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>plant</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>food</t>
+          <t>assume</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>876452748.5428671</v>
+        <v>685624112.120586</v>
       </c>
     </row>
   </sheetData>
